--- a/dfpyme/Reporte impuestos .xlsx
+++ b/dfpyme/Reporte impuestos .xlsx
@@ -15,96 +15,561 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t xml:space="preserve">REPORTE DE IMPUESTOS  </t>
   </si>
   <si>
-    <t>COOPERATIVA DE CAFICULTORES DE MANIZALES</t>
-  </si>
-  <si>
-    <t>TIENDA CAFÉ LA LOMA</t>
-  </si>
-  <si>
-    <t>NIT: 890801094</t>
-  </si>
-  <si>
-    <t>Dirección: CR 4 N 15 33 CHINCHINA Caldas</t>
+    <t>GRUPO EMPRESARIAL HERMANOS RAMIREZ S.A.S</t>
+  </si>
+  <si>
+    <t>CANCHAS SINTETICAS CANAAN</t>
+  </si>
+  <si>
+    <t>NIT: 901866738</t>
+  </si>
+  <si>
+    <t>Dirección: CRA 33  10 10 LT 1 BRR CANAAN PEREIRA Rda.</t>
   </si>
   <si>
     <t>Fecha inicial</t>
   </si>
   <si>
+    <t>2024-12-01</t>
+  </si>
+  <si>
+    <t>Fecha final</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>Factura inicial</t>
+  </si>
+  <si>
+    <t>Factura final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia proceso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha </t>
+  </si>
+  <si>
+    <t>Base INC 0</t>
+  </si>
+  <si>
+    <t>INC 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base INC 8  </t>
+  </si>
+  <si>
+    <t>INC 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base IVA 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA 0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base IVA 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA 5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base IVA 19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA 19  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total INC  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total IVA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total venta  </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>741.389</t>
+  </si>
+  <si>
+    <t>59.311</t>
+  </si>
+  <si>
+    <t>800.700</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>681.759</t>
+  </si>
+  <si>
+    <t>54.541</t>
+  </si>
+  <si>
+    <t>736.300</t>
+  </si>
+  <si>
+    <t>2024-12-03</t>
+  </si>
+  <si>
+    <t>977.685</t>
+  </si>
+  <si>
+    <t>78.215</t>
+  </si>
+  <si>
+    <t>1.055.900</t>
+  </si>
+  <si>
+    <t>2024-12-04</t>
+  </si>
+  <si>
+    <t>1.162.500</t>
+  </si>
+  <si>
+    <t>93.000</t>
+  </si>
+  <si>
+    <t>1.255.500</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>1.420.370</t>
+  </si>
+  <si>
+    <t>113.630</t>
+  </si>
+  <si>
+    <t>1.537.000</t>
+  </si>
+  <si>
+    <t>2024-12-06</t>
+  </si>
+  <si>
+    <t>1.058.056</t>
+  </si>
+  <si>
+    <t>84.644</t>
+  </si>
+  <si>
+    <t>1.142.700</t>
+  </si>
+  <si>
+    <t>2024-12-07</t>
+  </si>
+  <si>
+    <t>1.181.019</t>
+  </si>
+  <si>
+    <t>94.481</t>
+  </si>
+  <si>
+    <t>1.275.500</t>
+  </si>
+  <si>
+    <t>2024-12-08</t>
+  </si>
+  <si>
+    <t>1.050.370</t>
+  </si>
+  <si>
+    <t>84.030</t>
+  </si>
+  <si>
+    <t>1.134.400</t>
+  </si>
+  <si>
+    <t>2024-12-09</t>
+  </si>
+  <si>
+    <t>1.193.981</t>
+  </si>
+  <si>
+    <t>95.519</t>
+  </si>
+  <si>
+    <t>1.289.500</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>1.496.019</t>
+  </si>
+  <si>
+    <t>119.681</t>
+  </si>
+  <si>
+    <t>1.615.700</t>
+  </si>
+  <si>
     <t>2024-12-11</t>
   </si>
   <si>
-    <t>Fecha final</t>
-  </si>
-  <si>
-    <t>Factura inicial</t>
-  </si>
-  <si>
-    <t>PVC532</t>
-  </si>
-  <si>
-    <t>Factura final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia proceso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha </t>
-  </si>
-  <si>
-    <t>Base INC 0</t>
-  </si>
-  <si>
-    <t>INC 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base INC 8  </t>
-  </si>
-  <si>
-    <t>INC 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base IVA 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA 0  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base IVA 5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA 5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base IVA 19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA 19  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total INC  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total IVA  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total venta  </t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>29.630</t>
-  </si>
-  <si>
-    <t>2.370</t>
-  </si>
-  <si>
-    <t>32.000</t>
+    <t>1.087.037</t>
+  </si>
+  <si>
+    <t>86.963</t>
+  </si>
+  <si>
+    <t>1.174.000</t>
+  </si>
+  <si>
+    <t>2024-12-12</t>
+  </si>
+  <si>
+    <t>1.078.333</t>
+  </si>
+  <si>
+    <t>86.267</t>
+  </si>
+  <si>
+    <t>1.164.600</t>
+  </si>
+  <si>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>993.056</t>
+  </si>
+  <si>
+    <t>79.444</t>
+  </si>
+  <si>
+    <t>1.072.500</t>
+  </si>
+  <si>
+    <t>2024-12-14</t>
+  </si>
+  <si>
+    <t>1.008.333</t>
+  </si>
+  <si>
+    <t>80.667</t>
+  </si>
+  <si>
+    <t>1.089.000</t>
+  </si>
+  <si>
+    <t>2024-12-15</t>
+  </si>
+  <si>
+    <t>509.259</t>
+  </si>
+  <si>
+    <t>40.741</t>
+  </si>
+  <si>
+    <t>550.000</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>1.249.074</t>
+  </si>
+  <si>
+    <t>99.926</t>
+  </si>
+  <si>
+    <t>1.349.000</t>
+  </si>
+  <si>
+    <t>2024-12-17</t>
+  </si>
+  <si>
+    <t>1.233.704</t>
+  </si>
+  <si>
+    <t>98.696</t>
+  </si>
+  <si>
+    <t>1.332.400</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>2.053.241</t>
+  </si>
+  <si>
+    <t>164.259</t>
+  </si>
+  <si>
+    <t>2.217.500</t>
+  </si>
+  <si>
+    <t>2024-12-19</t>
+  </si>
+  <si>
+    <t>1.333.796</t>
+  </si>
+  <si>
+    <t>106.704</t>
+  </si>
+  <si>
+    <t>1.440.500</t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>4.517.130</t>
+  </si>
+  <si>
+    <t>361.370</t>
+  </si>
+  <si>
+    <t>5.696.500</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>3.995.926</t>
+  </si>
+  <si>
+    <t>319.674</t>
+  </si>
+  <si>
+    <t>4.529.600</t>
+  </si>
+  <si>
+    <t>2024-12-22</t>
+  </si>
+  <si>
+    <t>297.593</t>
+  </si>
+  <si>
+    <t>23.807</t>
+  </si>
+  <si>
+    <t>321.400</t>
+  </si>
+  <si>
+    <t>2024-12-23</t>
+  </si>
+  <si>
+    <t>1.412.870</t>
+  </si>
+  <si>
+    <t>113.030</t>
+  </si>
+  <si>
+    <t>1.605.900</t>
+  </si>
+  <si>
+    <t>2024-12-24</t>
+  </si>
+  <si>
+    <t>499.167</t>
+  </si>
+  <si>
+    <t>39.933</t>
+  </si>
+  <si>
+    <t>539.100</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>392.315</t>
+  </si>
+  <si>
+    <t>31.385</t>
+  </si>
+  <si>
+    <t>423.700</t>
+  </si>
+  <si>
+    <t>2024-12-26</t>
+  </si>
+  <si>
+    <t>972.778</t>
+  </si>
+  <si>
+    <t>77.822</t>
+  </si>
+  <si>
+    <t>1.050.600</t>
+  </si>
+  <si>
+    <t>2024-12-27</t>
+  </si>
+  <si>
+    <t>829.815</t>
+  </si>
+  <si>
+    <t>66.385</t>
+  </si>
+  <si>
+    <t>920.200</t>
+  </si>
+  <si>
+    <t>2024-12-28</t>
+  </si>
+  <si>
+    <t>849.352</t>
+  </si>
+  <si>
+    <t>67.948</t>
+  </si>
+  <si>
+    <t>917.300</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>517.685</t>
+  </si>
+  <si>
+    <t>41.415</t>
+  </si>
+  <si>
+    <t>559.100</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>1.127.870</t>
+  </si>
+  <si>
+    <t>90.230</t>
+  </si>
+  <si>
+    <t>1.218.100</t>
+  </si>
+  <si>
+    <t>2024-12-31</t>
+  </si>
+  <si>
+    <t>480.741</t>
+  </si>
+  <si>
+    <t>38.459</t>
+  </si>
+  <si>
+    <t>519.200</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>172.870</t>
+  </si>
+  <si>
+    <t>13.830</t>
+  </si>
+  <si>
+    <t>186.700</t>
+  </si>
+  <si>
+    <t>2025-01-02</t>
+  </si>
+  <si>
+    <t>1.469.074</t>
+  </si>
+  <si>
+    <t>117.526</t>
+  </si>
+  <si>
+    <t>1.589.600</t>
+  </si>
+  <si>
+    <t>2025-01-03</t>
+  </si>
+  <si>
+    <t>1.506.944</t>
+  </si>
+  <si>
+    <t>120.556</t>
+  </si>
+  <si>
+    <t>1.627.500</t>
+  </si>
+  <si>
+    <t>2025-01-04</t>
+  </si>
+  <si>
+    <t>891.481</t>
+  </si>
+  <si>
+    <t>71.319</t>
+  </si>
+  <si>
+    <t>962.800</t>
+  </si>
+  <si>
+    <t>2025-01-05</t>
+  </si>
+  <si>
+    <t>463.889</t>
+  </si>
+  <si>
+    <t>37.111</t>
+  </si>
+  <si>
+    <t>501.000</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>469.444</t>
+  </si>
+  <si>
+    <t>37.556</t>
+  </si>
+  <si>
+    <t>507.000</t>
+  </si>
+  <si>
+    <t>2025-01-07</t>
+  </si>
+  <si>
+    <t>1.865.463</t>
+  </si>
+  <si>
+    <t>149.237</t>
+  </si>
+  <si>
+    <t>2.014.700</t>
+  </si>
+  <si>
+    <t>2025-01-08</t>
+  </si>
+  <si>
+    <t>1.120.463</t>
+  </si>
+  <si>
+    <t>89.637</t>
+  </si>
+  <si>
+    <t>1.210.100</t>
+  </si>
+  <si>
+    <t>159.259</t>
+  </si>
+  <si>
+    <t>12.741</t>
+  </si>
+  <si>
+    <t>172.000</t>
   </si>
   <si>
     <t>Total Ventas</t>
@@ -114,6 +579,12 @@
   </si>
   <si>
     <t>Total INC</t>
+  </si>
+  <si>
+    <t>50.304.800</t>
+  </si>
+  <si>
+    <t>3.641.689</t>
   </si>
 </sst>
 </file>
@@ -513,10 +984,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N12" sqref="N12:O14"/>
+      <selection activeCell="N51" sqref="N51:O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -613,21 +1084,21 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
         <v>9</v>
+      </c>
+      <c r="B7">
+        <v>5657</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
+      <c r="E7">
+        <v>7932</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -725,27 +1196,1860 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="N12" s="4" t="s">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s">
+        <v>96</v>
+      </c>
+      <c r="N28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" t="s">
+        <v>100</v>
+      </c>
+      <c r="N29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" t="s">
+        <v>26</v>
+      </c>
+      <c r="O31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" t="s">
+        <v>112</v>
+      </c>
+      <c r="N32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" t="s">
+        <v>116</v>
+      </c>
+      <c r="N33" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" t="s">
+        <v>120</v>
+      </c>
+      <c r="N34" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" t="s">
+        <v>124</v>
+      </c>
+      <c r="N35" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>128</v>
+      </c>
+      <c r="N36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>132</v>
+      </c>
+      <c r="N37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" t="s">
+        <v>136</v>
+      </c>
+      <c r="N38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="N13" s="4" t="s">
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" t="s">
+        <v>140</v>
+      </c>
+      <c r="N39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>144</v>
+      </c>
+      <c r="N40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41">
         <v>31</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="N14" s="4" t="s">
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" t="s">
+        <v>148</v>
+      </c>
+      <c r="N41" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42">
         <v>32</v>
       </c>
-      <c r="O14" s="4" t="s">
-        <v>28</v>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" t="s">
+        <v>152</v>
+      </c>
+      <c r="N42" t="s">
+        <v>26</v>
+      </c>
+      <c r="O42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" t="s">
+        <v>156</v>
+      </c>
+      <c r="N43" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" t="s">
+        <v>160</v>
+      </c>
+      <c r="N44" t="s">
+        <v>26</v>
+      </c>
+      <c r="O44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" t="s">
+        <v>164</v>
+      </c>
+      <c r="N45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>168</v>
+      </c>
+      <c r="N46" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>172</v>
+      </c>
+      <c r="N47" t="s">
+        <v>26</v>
+      </c>
+      <c r="O47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" t="s">
+        <v>176</v>
+      </c>
+      <c r="N48" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" t="s">
+        <v>180</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" t="s">
+        <v>180</v>
+      </c>
+      <c r="N49" t="s">
+        <v>26</v>
+      </c>
+      <c r="O49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" t="s">
+        <v>183</v>
+      </c>
+      <c r="N50" t="s">
+        <v>26</v>
+      </c>
+      <c r="O50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="N51" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="N52" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="N53" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/dfpyme/Reporte impuestos .xlsx
+++ b/dfpyme/Reporte impuestos .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="515">
   <si>
     <t xml:space="preserve">REPORTE DE IMPUESTOS  </t>
   </si>
@@ -35,69 +35,1044 @@
     <t>Fecha inicial</t>
   </si>
   <si>
+    <t>2024-09-16</t>
+  </si>
+  <si>
+    <t>Fecha final</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>Factura inicial</t>
+  </si>
+  <si>
+    <t>FEVR1</t>
+  </si>
+  <si>
+    <t>Factura final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia proceso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha </t>
+  </si>
+  <si>
+    <t>Base INC 0</t>
+  </si>
+  <si>
+    <t>INC 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base INC 8  </t>
+  </si>
+  <si>
+    <t>INC 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base IVA 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA 0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base IVA 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA 5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base IVA 19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA 19  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total INC  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total IVA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total venta  </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7.407</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>8.000</t>
+  </si>
+  <si>
+    <t>2024-09-17</t>
+  </si>
+  <si>
+    <t>20.833</t>
+  </si>
+  <si>
+    <t>1.667</t>
+  </si>
+  <si>
+    <t>22.500</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>1.169.907</t>
+  </si>
+  <si>
+    <t>93.593</t>
+  </si>
+  <si>
+    <t>1.263.500</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>1.239.537</t>
+  </si>
+  <si>
+    <t>99.163</t>
+  </si>
+  <si>
+    <t>1.338.700</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>1.091.296</t>
+  </si>
+  <si>
+    <t>87.304</t>
+  </si>
+  <si>
+    <t>1.178.600</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>587.130</t>
+  </si>
+  <si>
+    <t>46.970</t>
+  </si>
+  <si>
+    <t>634.100</t>
+  </si>
+  <si>
+    <t>2024-09-22</t>
+  </si>
+  <si>
+    <t>956.852</t>
+  </si>
+  <si>
+    <t>76.548</t>
+  </si>
+  <si>
+    <t>1.033.400</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>776.204</t>
+  </si>
+  <si>
+    <t>62.096</t>
+  </si>
+  <si>
+    <t>838.300</t>
+  </si>
+  <si>
+    <t>2024-09-24</t>
+  </si>
+  <si>
+    <t>826.204</t>
+  </si>
+  <si>
+    <t>66.096</t>
+  </si>
+  <si>
+    <t>892.300</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>673.148</t>
+  </si>
+  <si>
+    <t>53.852</t>
+  </si>
+  <si>
+    <t>727.000</t>
+  </si>
+  <si>
+    <t>2024-09-26</t>
+  </si>
+  <si>
+    <t>587.407</t>
+  </si>
+  <si>
+    <t>46.993</t>
+  </si>
+  <si>
+    <t>634.400</t>
+  </si>
+  <si>
+    <t>2024-09-27</t>
+  </si>
+  <si>
+    <t>792.130</t>
+  </si>
+  <si>
+    <t>63.370</t>
+  </si>
+  <si>
+    <t>855.500</t>
+  </si>
+  <si>
+    <t>2024-09-28</t>
+  </si>
+  <si>
+    <t>431.944</t>
+  </si>
+  <si>
+    <t>34.556</t>
+  </si>
+  <si>
+    <t>469.100</t>
+  </si>
+  <si>
+    <t>2024-09-29</t>
+  </si>
+  <si>
+    <t>893.611</t>
+  </si>
+  <si>
+    <t>71.489</t>
+  </si>
+  <si>
+    <t>965.100</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>1.271.667</t>
+  </si>
+  <si>
+    <t>101.733</t>
+  </si>
+  <si>
+    <t>57.563.400</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>1.489.259</t>
+  </si>
+  <si>
+    <t>119.141</t>
+  </si>
+  <si>
+    <t>1.608.401</t>
+  </si>
+  <si>
+    <t>2024-10-02</t>
+  </si>
+  <si>
+    <t>1.693.981</t>
+  </si>
+  <si>
+    <t>135.519</t>
+  </si>
+  <si>
+    <t>4.209.500</t>
+  </si>
+  <si>
+    <t>2024-10-03</t>
+  </si>
+  <si>
+    <t>9.520.926</t>
+  </si>
+  <si>
+    <t>761.674</t>
+  </si>
+  <si>
+    <t>10.282.600</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>13.249.815</t>
+  </si>
+  <si>
+    <t>1.059.985</t>
+  </si>
+  <si>
+    <t>14.309.800</t>
+  </si>
+  <si>
+    <t>2024-10-05</t>
+  </si>
+  <si>
+    <t>16.224.259</t>
+  </si>
+  <si>
+    <t>1.297.941</t>
+  </si>
+  <si>
+    <t>17.522.200</t>
+  </si>
+  <si>
+    <t>2024-10-06</t>
+  </si>
+  <si>
+    <t>13.751.852</t>
+  </si>
+  <si>
+    <t>1.100.148</t>
+  </si>
+  <si>
+    <t>14.852.000</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>1.282.222</t>
+  </si>
+  <si>
+    <t>102.578</t>
+  </si>
+  <si>
+    <t>1.384.800</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>841.204</t>
+  </si>
+  <si>
+    <t>67.296</t>
+  </si>
+  <si>
+    <t>910.900</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>1.482.870</t>
+  </si>
+  <si>
+    <t>118.630</t>
+  </si>
+  <si>
+    <t>1.601.500</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>1.250.370</t>
+  </si>
+  <si>
+    <t>100.030</t>
+  </si>
+  <si>
+    <t>1.190.000</t>
+  </si>
+  <si>
+    <t>190.000</t>
+  </si>
+  <si>
+    <t>2.540.400</t>
+  </si>
+  <si>
+    <t>2024-10-11</t>
+  </si>
+  <si>
+    <t>1.498.796</t>
+  </si>
+  <si>
+    <t>119.904</t>
+  </si>
+  <si>
+    <t>1.618.700</t>
+  </si>
+  <si>
+    <t>2024-10-12</t>
+  </si>
+  <si>
+    <t>610.741</t>
+  </si>
+  <si>
+    <t>48.859</t>
+  </si>
+  <si>
+    <t>659.600</t>
+  </si>
+  <si>
+    <t>2024-10-13</t>
+  </si>
+  <si>
+    <t>622.222</t>
+  </si>
+  <si>
+    <t>49.778</t>
+  </si>
+  <si>
+    <t>677.000</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>596.944</t>
+  </si>
+  <si>
+    <t>47.756</t>
+  </si>
+  <si>
+    <t>644.700</t>
+  </si>
+  <si>
+    <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>852.685</t>
+  </si>
+  <si>
+    <t>68.215</t>
+  </si>
+  <si>
+    <t>920.900</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>810.370</t>
+  </si>
+  <si>
+    <t>64.830</t>
+  </si>
+  <si>
+    <t>880.200</t>
+  </si>
+  <si>
+    <t>2024-10-17</t>
+  </si>
+  <si>
+    <t>70.000</t>
+  </si>
+  <si>
+    <t>820.556</t>
+  </si>
+  <si>
+    <t>65.644</t>
+  </si>
+  <si>
+    <t>957.200</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>100.000</t>
+  </si>
+  <si>
+    <t>587.315</t>
+  </si>
+  <si>
+    <t>46.985</t>
+  </si>
+  <si>
+    <t>734.300</t>
+  </si>
+  <si>
+    <t>2024-10-19</t>
+  </si>
+  <si>
+    <t>1.027.315</t>
+  </si>
+  <si>
+    <t>82.185</t>
+  </si>
+  <si>
+    <t>1.109.500</t>
+  </si>
+  <si>
+    <t>2024-10-20</t>
+  </si>
+  <si>
+    <t>608.056</t>
+  </si>
+  <si>
+    <t>48.644</t>
+  </si>
+  <si>
+    <t>656.700</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>120.000</t>
+  </si>
+  <si>
+    <t>993.704</t>
+  </si>
+  <si>
+    <t>79.496</t>
+  </si>
+  <si>
+    <t>1.201.200</t>
+  </si>
+  <si>
+    <t>2024-10-22</t>
+  </si>
+  <si>
+    <t>165.000</t>
+  </si>
+  <si>
+    <t>1.331.759</t>
+  </si>
+  <si>
+    <t>106.541</t>
+  </si>
+  <si>
+    <t>1.611.300</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>210.000</t>
+  </si>
+  <si>
+    <t>1.144.815</t>
+  </si>
+  <si>
+    <t>91.585</t>
+  </si>
+  <si>
+    <t>3.788.400</t>
+  </si>
+  <si>
+    <t>2024-10-24</t>
+  </si>
+  <si>
+    <t>200.000</t>
+  </si>
+  <si>
+    <t>1.053.611</t>
+  </si>
+  <si>
+    <t>84.289</t>
+  </si>
+  <si>
+    <t>1.349.900</t>
+  </si>
+  <si>
+    <t>2024-10-25</t>
+  </si>
+  <si>
+    <t>589.630</t>
+  </si>
+  <si>
+    <t>47.170</t>
+  </si>
+  <si>
+    <t>746.800</t>
+  </si>
+  <si>
+    <t>2024-10-26</t>
+  </si>
+  <si>
+    <t>35.000</t>
+  </si>
+  <si>
+    <t>768.889</t>
+  </si>
+  <si>
+    <t>61.511</t>
+  </si>
+  <si>
+    <t>871.400</t>
+  </si>
+  <si>
+    <t>2024-10-27</t>
+  </si>
+  <si>
+    <t>425.463</t>
+  </si>
+  <si>
+    <t>34.037</t>
+  </si>
+  <si>
+    <t>459.500</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>882.037</t>
+  </si>
+  <si>
+    <t>70.563</t>
+  </si>
+  <si>
+    <t>1.056.600</t>
+  </si>
+  <si>
+    <t>2024-10-29</t>
+  </si>
+  <si>
+    <t>175.000</t>
+  </si>
+  <si>
+    <t>926.852</t>
+  </si>
+  <si>
+    <t>74.148</t>
+  </si>
+  <si>
+    <t>1.218.000</t>
+  </si>
+  <si>
+    <t>2024-10-30</t>
+  </si>
+  <si>
+    <t>205.000</t>
+  </si>
+  <si>
+    <t>1.475.093</t>
+  </si>
+  <si>
+    <t>118.007</t>
+  </si>
+  <si>
+    <t>1.817.100</t>
+  </si>
+  <si>
+    <t>2024-10-31</t>
+  </si>
+  <si>
+    <t>65.000</t>
+  </si>
+  <si>
+    <t>927.407</t>
+  </si>
+  <si>
+    <t>74.193</t>
+  </si>
+  <si>
+    <t>1.079.600</t>
+  </si>
+  <si>
+    <t>2024-11-01</t>
+  </si>
+  <si>
+    <t>790.000</t>
+  </si>
+  <si>
+    <t>2.545.093</t>
+  </si>
+  <si>
+    <t>203.607</t>
+  </si>
+  <si>
+    <t>3.568.700</t>
+  </si>
+  <si>
+    <t>2024-11-02</t>
+  </si>
+  <si>
+    <t>1.688.981</t>
+  </si>
+  <si>
+    <t>135.119</t>
+  </si>
+  <si>
+    <t>3.250.100</t>
+  </si>
+  <si>
+    <t>2024-11-03</t>
+  </si>
+  <si>
+    <t>485.000</t>
+  </si>
+  <si>
+    <t>1.818.796</t>
+  </si>
+  <si>
+    <t>145.504</t>
+  </si>
+  <si>
+    <t>2.572.300</t>
+  </si>
+  <si>
+    <t>2024-11-04</t>
+  </si>
+  <si>
+    <t>983.889</t>
+  </si>
+  <si>
+    <t>78.711</t>
+  </si>
+  <si>
+    <t>1.134.600</t>
+  </si>
+  <si>
+    <t>2024-11-05</t>
+  </si>
+  <si>
+    <t>1.150.556</t>
+  </si>
+  <si>
+    <t>92.044</t>
+  </si>
+  <si>
+    <t>1.372.600</t>
+  </si>
+  <si>
+    <t>2024-11-06</t>
+  </si>
+  <si>
+    <t>1.073.056</t>
+  </si>
+  <si>
+    <t>85.844</t>
+  </si>
+  <si>
+    <t>1.441.900</t>
+  </si>
+  <si>
+    <t>2024-11-07</t>
+  </si>
+  <si>
+    <t>140.000</t>
+  </si>
+  <si>
+    <t>625.926</t>
+  </si>
+  <si>
+    <t>50.074</t>
+  </si>
+  <si>
+    <t>880.000</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>702.778</t>
+  </si>
+  <si>
+    <t>56.222</t>
+  </si>
+  <si>
+    <t>839.000</t>
+  </si>
+  <si>
+    <t>2024-11-09</t>
+  </si>
+  <si>
+    <t>837.037</t>
+  </si>
+  <si>
+    <t>66.963</t>
+  </si>
+  <si>
+    <t>947.000</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>758.981</t>
+  </si>
+  <si>
+    <t>60.719</t>
+  </si>
+  <si>
+    <t>916.700</t>
+  </si>
+  <si>
+    <t>2024-11-11</t>
+  </si>
+  <si>
+    <t>713.056</t>
+  </si>
+  <si>
+    <t>57.044</t>
+  </si>
+  <si>
+    <t>803.100</t>
+  </si>
+  <si>
+    <t>2024-11-12</t>
+  </si>
+  <si>
+    <t>593.056</t>
+  </si>
+  <si>
+    <t>47.444</t>
+  </si>
+  <si>
+    <t>718.500</t>
+  </si>
+  <si>
+    <t>2024-11-13</t>
+  </si>
+  <si>
+    <t>1.191.574</t>
+  </si>
+  <si>
+    <t>95.326</t>
+  </si>
+  <si>
+    <t>1.342.900</t>
+  </si>
+  <si>
+    <t>2024-11-14</t>
+  </si>
+  <si>
+    <t>1.091.389</t>
+  </si>
+  <si>
+    <t>87.311</t>
+  </si>
+  <si>
+    <t>1.426.700</t>
+  </si>
+  <si>
+    <t>2024-11-15</t>
+  </si>
+  <si>
+    <t>851.296</t>
+  </si>
+  <si>
+    <t>68.104</t>
+  </si>
+  <si>
+    <t>1.098.400</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>840.741</t>
+  </si>
+  <si>
+    <t>67.259</t>
+  </si>
+  <si>
+    <t>1.014.000</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>445.648</t>
+  </si>
+  <si>
+    <t>35.652</t>
+  </si>
+  <si>
+    <t>522.300</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>558.981</t>
+  </si>
+  <si>
+    <t>44.719</t>
+  </si>
+  <si>
+    <t>633.700</t>
+  </si>
+  <si>
+    <t>2024-11-19</t>
+  </si>
+  <si>
+    <t>335.000</t>
+  </si>
+  <si>
+    <t>1.340.185</t>
+  </si>
+  <si>
+    <t>107.215</t>
+  </si>
+  <si>
+    <t>1.814.400</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>240.000</t>
+  </si>
+  <si>
+    <t>1.037.130</t>
+  </si>
+  <si>
+    <t>82.970</t>
+  </si>
+  <si>
+    <t>1.418.100</t>
+  </si>
+  <si>
+    <t>2024-11-21</t>
+  </si>
+  <si>
+    <t>940.093</t>
+  </si>
+  <si>
+    <t>75.207</t>
+  </si>
+  <si>
+    <t>1.249.300</t>
+  </si>
+  <si>
+    <t>2024-11-22</t>
+  </si>
+  <si>
+    <t>105.000</t>
+  </si>
+  <si>
+    <t>795.278</t>
+  </si>
+  <si>
+    <t>63.622</t>
+  </si>
+  <si>
+    <t>1.088.900</t>
+  </si>
+  <si>
+    <t>2024-11-23</t>
+  </si>
+  <si>
+    <t>926.759</t>
+  </si>
+  <si>
+    <t>74.141</t>
+  </si>
+  <si>
+    <t>1.130.900</t>
+  </si>
+  <si>
+    <t>2024-11-24</t>
+  </si>
+  <si>
+    <t>1.015.463</t>
+  </si>
+  <si>
+    <t>81.237</t>
+  </si>
+  <si>
+    <t>1.241.700</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>160.000</t>
+  </si>
+  <si>
+    <t>826.944</t>
+  </si>
+  <si>
+    <t>66.156</t>
+  </si>
+  <si>
+    <t>1.083.100</t>
+  </si>
+  <si>
+    <t>2024-11-26</t>
+  </si>
+  <si>
+    <t>816.019</t>
+  </si>
+  <si>
+    <t>65.281</t>
+  </si>
+  <si>
+    <t>980.300</t>
+  </si>
+  <si>
+    <t>2024-11-27</t>
+  </si>
+  <si>
+    <t>135.000</t>
+  </si>
+  <si>
+    <t>1.425.093</t>
+  </si>
+  <si>
+    <t>114.007</t>
+  </si>
+  <si>
+    <t>1.709.100</t>
+  </si>
+  <si>
+    <t>2024-11-28</t>
+  </si>
+  <si>
+    <t>1.222.870</t>
+  </si>
+  <si>
+    <t>97.830</t>
+  </si>
+  <si>
+    <t>1.501.700</t>
+  </si>
+  <si>
+    <t>2024-11-29</t>
+  </si>
+  <si>
+    <t>699.074</t>
+  </si>
+  <si>
+    <t>55.926</t>
+  </si>
+  <si>
+    <t>889.000</t>
+  </si>
+  <si>
+    <t>2024-11-30</t>
+  </si>
+  <si>
+    <t>728.611</t>
+  </si>
+  <si>
+    <t>58.289</t>
+  </si>
+  <si>
+    <t>867.900</t>
+  </si>
+  <si>
     <t>2024-12-01</t>
   </si>
   <si>
-    <t>Fecha final</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>Factura inicial</t>
-  </si>
-  <si>
-    <t>Factura final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia proceso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha </t>
-  </si>
-  <si>
-    <t>Base INC 0</t>
-  </si>
-  <si>
-    <t>INC 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base INC 8  </t>
-  </si>
-  <si>
-    <t>INC 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base IVA 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA 0  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base IVA 5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA 5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base IVA 19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA 19  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total INC  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total IVA  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total venta  </t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>741.389</t>
   </si>
   <si>
@@ -581,10 +1556,10 @@
     <t>Total INC</t>
   </si>
   <si>
-    <t>50.304.800</t>
-  </si>
-  <si>
-    <t>3.641.689</t>
+    <t>200.879.400</t>
+  </si>
+  <si>
+    <t>13.314.541</t>
   </si>
 </sst>
 </file>
@@ -984,10 +1959,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N51" sqref="N51:O53"/>
+      <selection activeCell="N127" sqref="N127:O129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1091,11 +2066,11 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>5657</v>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>7932</v>
@@ -1103,49 +2078,49 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1156,43 +2131,43 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1200,46 +2175,46 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1247,46 +2222,46 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1294,46 +2269,46 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1341,46 +2316,46 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1388,46 +2363,46 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1435,46 +2410,46 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1482,46 +2457,46 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1529,46 +2504,46 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1576,46 +2551,46 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1623,46 +2598,46 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1670,46 +2645,46 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1717,46 +2692,46 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1764,46 +2739,46 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1811,46 +2786,46 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1858,46 +2833,46 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1905,46 +2880,46 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1952,46 +2927,46 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1999,46 +2974,46 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2046,46 +3021,46 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2093,46 +3068,46 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2140,46 +3115,46 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2187,46 +3162,46 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2234,46 +3209,46 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2281,46 +3256,46 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K35" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="L35" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="M35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N35" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="O35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2328,46 +3303,46 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F36" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M36" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O36" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2375,46 +3350,46 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F37" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M37" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O37" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2422,46 +3397,46 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O38" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2469,46 +3444,46 @@
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M39" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O39" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2516,46 +3491,46 @@
         <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M40" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O40" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2563,46 +3538,46 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M41" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O41" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2610,46 +3585,46 @@
         <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M42" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2657,46 +3632,46 @@
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F43" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M43" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="N43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O43" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2704,46 +3679,46 @@
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M44" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="N44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O44" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2751,46 +3726,46 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F45" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M45" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="N45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O45" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2798,46 +3773,46 @@
         <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E46" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F46" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M46" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="N46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O46" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2845,46 +3820,46 @@
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F47" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M47" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="N47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O47" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2892,46 +3867,46 @@
         <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F48" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M48" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="N48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O48" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2939,46 +3914,46 @@
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F49" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M49" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O49" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -2986,70 +3961,3642 @@
         <v>40</v>
       </c>
       <c r="B50" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>192</v>
+      </c>
+      <c r="F50" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" t="s">
+        <v>193</v>
+      </c>
+      <c r="N50" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" t="s">
+        <v>198</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" t="s">
+        <v>198</v>
+      </c>
+      <c r="N51" t="s">
+        <v>27</v>
+      </c>
+      <c r="O51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" t="s">
+        <v>202</v>
+      </c>
+      <c r="N52" t="s">
+        <v>27</v>
+      </c>
+      <c r="O52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" t="s">
+        <v>206</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" t="s">
+        <v>206</v>
+      </c>
+      <c r="N53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s">
+        <v>211</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" t="s">
+        <v>211</v>
+      </c>
+      <c r="N54" t="s">
+        <v>27</v>
+      </c>
+      <c r="O54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" t="s">
+        <v>215</v>
+      </c>
+      <c r="F55" t="s">
+        <v>216</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" t="s">
+        <v>216</v>
+      </c>
+      <c r="N55" t="s">
+        <v>27</v>
+      </c>
+      <c r="O55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" t="s">
+        <v>220</v>
+      </c>
+      <c r="F56" t="s">
+        <v>221</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" t="s">
+        <v>221</v>
+      </c>
+      <c r="N56" t="s">
+        <v>27</v>
+      </c>
+      <c r="O56" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57">
+        <v>47</v>
+      </c>
+      <c r="B57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" t="s">
+        <v>226</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" t="s">
+        <v>226</v>
+      </c>
+      <c r="N57" t="s">
+        <v>27</v>
+      </c>
+      <c r="O57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58">
+        <v>48</v>
+      </c>
+      <c r="B58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" t="s">
+        <v>229</v>
+      </c>
+      <c r="F58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N58" t="s">
+        <v>27</v>
+      </c>
+      <c r="O58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59">
+        <v>49</v>
+      </c>
+      <c r="B59" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
+        <v>234</v>
+      </c>
+      <c r="F59" t="s">
+        <v>235</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" t="s">
+        <v>235</v>
+      </c>
+      <c r="N59" t="s">
+        <v>27</v>
+      </c>
+      <c r="O59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" t="s">
+        <v>239</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" t="s">
+        <v>239</v>
+      </c>
+      <c r="N60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O60" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61">
+        <v>51</v>
+      </c>
+      <c r="B61" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" t="s">
+        <v>242</v>
+      </c>
+      <c r="F61" t="s">
+        <v>243</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" t="s">
+        <v>27</v>
+      </c>
+      <c r="L61" t="s">
+        <v>27</v>
+      </c>
+      <c r="M61" t="s">
+        <v>243</v>
+      </c>
+      <c r="N61" t="s">
+        <v>27</v>
+      </c>
+      <c r="O61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" t="s">
+        <v>246</v>
+      </c>
+      <c r="F62" t="s">
+        <v>247</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" t="s">
+        <v>27</v>
+      </c>
+      <c r="M62" t="s">
+        <v>247</v>
+      </c>
+      <c r="N62" t="s">
+        <v>27</v>
+      </c>
+      <c r="O62" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" t="s">
+        <v>250</v>
+      </c>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" t="s">
+        <v>251</v>
+      </c>
+      <c r="F63" t="s">
+        <v>252</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" t="s">
+        <v>27</v>
+      </c>
+      <c r="M63" t="s">
+        <v>252</v>
+      </c>
+      <c r="N63" t="s">
+        <v>27</v>
+      </c>
+      <c r="O63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64">
+        <v>54</v>
+      </c>
+      <c r="B64" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" t="s">
+        <v>255</v>
+      </c>
+      <c r="F64" t="s">
+        <v>256</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" t="s">
+        <v>27</v>
+      </c>
+      <c r="M64" t="s">
+        <v>256</v>
+      </c>
+      <c r="N64" t="s">
+        <v>27</v>
+      </c>
+      <c r="O64" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65">
+        <v>55</v>
+      </c>
+      <c r="B65" t="s">
+        <v>258</v>
+      </c>
+      <c r="C65" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" t="s">
+        <v>259</v>
+      </c>
+      <c r="F65" t="s">
+        <v>260</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" t="s">
+        <v>27</v>
+      </c>
+      <c r="M65" t="s">
+        <v>260</v>
+      </c>
+      <c r="N65" t="s">
+        <v>27</v>
+      </c>
+      <c r="O65" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>262</v>
+      </c>
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" t="s">
+        <v>263</v>
+      </c>
+      <c r="F66" t="s">
+        <v>264</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" t="s">
+        <v>27</v>
+      </c>
+      <c r="L66" t="s">
+        <v>27</v>
+      </c>
+      <c r="M66" t="s">
+        <v>264</v>
+      </c>
+      <c r="N66" t="s">
+        <v>27</v>
+      </c>
+      <c r="O66" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67">
+        <v>57</v>
+      </c>
+      <c r="B67" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" t="s">
+        <v>267</v>
+      </c>
+      <c r="F67" t="s">
+        <v>268</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" t="s">
+        <v>27</v>
+      </c>
+      <c r="K67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" t="s">
+        <v>27</v>
+      </c>
+      <c r="M67" t="s">
+        <v>268</v>
+      </c>
+      <c r="N67" t="s">
+        <v>27</v>
+      </c>
+      <c r="O67" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>270</v>
+      </c>
+      <c r="C68" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" t="s">
+        <v>271</v>
+      </c>
+      <c r="F68" t="s">
+        <v>272</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" t="s">
+        <v>27</v>
+      </c>
+      <c r="J68" t="s">
+        <v>27</v>
+      </c>
+      <c r="K68" t="s">
+        <v>27</v>
+      </c>
+      <c r="L68" t="s">
+        <v>27</v>
+      </c>
+      <c r="M68" t="s">
+        <v>272</v>
+      </c>
+      <c r="N68" t="s">
+        <v>27</v>
+      </c>
+      <c r="O68" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69">
+        <v>59</v>
+      </c>
+      <c r="B69" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" t="s">
+        <v>275</v>
+      </c>
+      <c r="F69" t="s">
+        <v>276</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" t="s">
+        <v>27</v>
+      </c>
+      <c r="K69" t="s">
+        <v>27</v>
+      </c>
+      <c r="L69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M69" t="s">
+        <v>276</v>
+      </c>
+      <c r="N69" t="s">
+        <v>27</v>
+      </c>
+      <c r="O69" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70">
+        <v>60</v>
+      </c>
+      <c r="B70" t="s">
+        <v>278</v>
+      </c>
+      <c r="C70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" t="s">
+        <v>279</v>
+      </c>
+      <c r="F70" t="s">
+        <v>280</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" t="s">
+        <v>27</v>
+      </c>
+      <c r="K70" t="s">
+        <v>27</v>
+      </c>
+      <c r="L70" t="s">
+        <v>27</v>
+      </c>
+      <c r="M70" t="s">
+        <v>280</v>
+      </c>
+      <c r="N70" t="s">
+        <v>27</v>
+      </c>
+      <c r="O70" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71">
+        <v>61</v>
+      </c>
+      <c r="B71" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" t="s">
+        <v>283</v>
+      </c>
+      <c r="F71" t="s">
+        <v>284</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>27</v>
+      </c>
+      <c r="I71" t="s">
+        <v>27</v>
+      </c>
+      <c r="J71" t="s">
+        <v>27</v>
+      </c>
+      <c r="K71" t="s">
+        <v>27</v>
+      </c>
+      <c r="L71" t="s">
+        <v>27</v>
+      </c>
+      <c r="M71" t="s">
+        <v>284</v>
+      </c>
+      <c r="N71" t="s">
+        <v>27</v>
+      </c>
+      <c r="O71" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72">
+        <v>62</v>
+      </c>
+      <c r="B72" t="s">
+        <v>286</v>
+      </c>
+      <c r="C72" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" t="s">
+        <v>287</v>
+      </c>
+      <c r="F72" t="s">
+        <v>288</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I72" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" t="s">
+        <v>27</v>
+      </c>
+      <c r="L72" t="s">
+        <v>27</v>
+      </c>
+      <c r="M72" t="s">
+        <v>288</v>
+      </c>
+      <c r="N72" t="s">
+        <v>27</v>
+      </c>
+      <c r="O72" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>290</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" t="s">
+        <v>291</v>
+      </c>
+      <c r="F73" t="s">
+        <v>292</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" t="s">
+        <v>27</v>
+      </c>
+      <c r="J73" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" t="s">
+        <v>27</v>
+      </c>
+      <c r="L73" t="s">
+        <v>27</v>
+      </c>
+      <c r="M73" t="s">
+        <v>292</v>
+      </c>
+      <c r="N73" t="s">
+        <v>27</v>
+      </c>
+      <c r="O73" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74">
+        <v>64</v>
+      </c>
+      <c r="B74" t="s">
+        <v>294</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" t="s">
+        <v>295</v>
+      </c>
+      <c r="F74" t="s">
+        <v>296</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" t="s">
+        <v>27</v>
+      </c>
+      <c r="L74" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" t="s">
+        <v>296</v>
+      </c>
+      <c r="N74" t="s">
+        <v>27</v>
+      </c>
+      <c r="O74" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>298</v>
+      </c>
+      <c r="C75" t="s">
+        <v>299</v>
+      </c>
+      <c r="D75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" t="s">
+        <v>301</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L75" t="s">
+        <v>27</v>
+      </c>
+      <c r="M75" t="s">
+        <v>301</v>
+      </c>
+      <c r="N75" t="s">
+        <v>27</v>
+      </c>
+      <c r="O75" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76">
+        <v>66</v>
+      </c>
+      <c r="B76" t="s">
+        <v>303</v>
+      </c>
+      <c r="C76" t="s">
+        <v>304</v>
+      </c>
+      <c r="D76" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" t="s">
+        <v>305</v>
+      </c>
+      <c r="F76" t="s">
+        <v>306</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" t="s">
+        <v>27</v>
+      </c>
+      <c r="J76" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" t="s">
+        <v>27</v>
+      </c>
+      <c r="M76" t="s">
+        <v>306</v>
+      </c>
+      <c r="N76" t="s">
+        <v>27</v>
+      </c>
+      <c r="O76" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77">
+        <v>67</v>
+      </c>
+      <c r="B77" t="s">
+        <v>308</v>
+      </c>
+      <c r="C77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s">
+        <v>309</v>
+      </c>
+      <c r="F77" t="s">
+        <v>310</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" t="s">
+        <v>27</v>
+      </c>
+      <c r="J77" t="s">
+        <v>27</v>
+      </c>
+      <c r="K77" t="s">
+        <v>27</v>
+      </c>
+      <c r="L77" t="s">
+        <v>27</v>
+      </c>
+      <c r="M77" t="s">
+        <v>310</v>
+      </c>
+      <c r="N77" t="s">
+        <v>27</v>
+      </c>
+      <c r="O77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78">
+        <v>68</v>
+      </c>
+      <c r="B78" t="s">
+        <v>312</v>
+      </c>
+      <c r="C78" t="s">
+        <v>313</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s">
+        <v>314</v>
+      </c>
+      <c r="F78" t="s">
+        <v>315</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" t="s">
+        <v>27</v>
+      </c>
+      <c r="J78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" t="s">
+        <v>27</v>
+      </c>
+      <c r="L78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M78" t="s">
+        <v>315</v>
+      </c>
+      <c r="N78" t="s">
+        <v>27</v>
+      </c>
+      <c r="O78" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79">
+        <v>69</v>
+      </c>
+      <c r="B79" t="s">
+        <v>317</v>
+      </c>
+      <c r="C79" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" t="s">
+        <v>318</v>
+      </c>
+      <c r="F79" t="s">
+        <v>319</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" t="s">
+        <v>27</v>
+      </c>
+      <c r="L79" t="s">
+        <v>27</v>
+      </c>
+      <c r="M79" t="s">
+        <v>319</v>
+      </c>
+      <c r="N79" t="s">
+        <v>27</v>
+      </c>
+      <c r="O79" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80">
+        <v>70</v>
+      </c>
+      <c r="B80" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" t="s">
+        <v>154</v>
+      </c>
+      <c r="D80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" t="s">
+        <v>322</v>
+      </c>
+      <c r="F80" t="s">
+        <v>323</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" t="s">
+        <v>27</v>
+      </c>
+      <c r="L80" t="s">
+        <v>27</v>
+      </c>
+      <c r="M80" t="s">
+        <v>323</v>
+      </c>
+      <c r="N80" t="s">
+        <v>27</v>
+      </c>
+      <c r="O80" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>325</v>
+      </c>
+      <c r="C81" t="s">
+        <v>326</v>
+      </c>
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" t="s">
+        <v>327</v>
+      </c>
+      <c r="F81" t="s">
+        <v>328</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" t="s">
+        <v>27</v>
+      </c>
+      <c r="L81" t="s">
+        <v>27</v>
+      </c>
+      <c r="M81" t="s">
+        <v>328</v>
+      </c>
+      <c r="N81" t="s">
+        <v>27</v>
+      </c>
+      <c r="O81" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82">
+        <v>72</v>
+      </c>
+      <c r="B82" t="s">
+        <v>330</v>
+      </c>
+      <c r="C82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" t="s">
+        <v>331</v>
+      </c>
+      <c r="F82" t="s">
+        <v>332</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" t="s">
+        <v>27</v>
+      </c>
+      <c r="J82" t="s">
+        <v>27</v>
+      </c>
+      <c r="K82" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" t="s">
+        <v>27</v>
+      </c>
+      <c r="M82" t="s">
+        <v>332</v>
+      </c>
+      <c r="N82" t="s">
+        <v>27</v>
+      </c>
+      <c r="O82" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
+        <v>334</v>
+      </c>
+      <c r="C83" t="s">
+        <v>335</v>
+      </c>
+      <c r="D83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" t="s">
+        <v>336</v>
+      </c>
+      <c r="F83" t="s">
+        <v>337</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s">
+        <v>27</v>
+      </c>
+      <c r="I83" t="s">
+        <v>27</v>
+      </c>
+      <c r="J83" t="s">
+        <v>27</v>
+      </c>
+      <c r="K83" t="s">
+        <v>27</v>
+      </c>
+      <c r="L83" t="s">
+        <v>27</v>
+      </c>
+      <c r="M83" t="s">
+        <v>337</v>
+      </c>
+      <c r="N83" t="s">
+        <v>27</v>
+      </c>
+      <c r="O83" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>339</v>
+      </c>
+      <c r="C84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" t="s">
+        <v>340</v>
+      </c>
+      <c r="F84" t="s">
+        <v>341</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84" t="s">
+        <v>27</v>
+      </c>
+      <c r="K84" t="s">
+        <v>27</v>
+      </c>
+      <c r="L84" t="s">
+        <v>27</v>
+      </c>
+      <c r="M84" t="s">
+        <v>341</v>
+      </c>
+      <c r="N84" t="s">
+        <v>27</v>
+      </c>
+      <c r="O84" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85">
+        <v>75</v>
+      </c>
+      <c r="B85" t="s">
+        <v>343</v>
+      </c>
+      <c r="C85" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" t="s">
+        <v>344</v>
+      </c>
+      <c r="F85" t="s">
+        <v>345</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>27</v>
+      </c>
+      <c r="I85" t="s">
+        <v>27</v>
+      </c>
+      <c r="J85" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" t="s">
+        <v>27</v>
+      </c>
+      <c r="L85" t="s">
+        <v>27</v>
+      </c>
+      <c r="M85" t="s">
+        <v>345</v>
+      </c>
+      <c r="N85" t="s">
+        <v>27</v>
+      </c>
+      <c r="O85" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86">
+        <v>76</v>
+      </c>
+      <c r="B86" t="s">
+        <v>347</v>
+      </c>
+      <c r="C86" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" t="s">
+        <v>348</v>
+      </c>
+      <c r="F86" t="s">
+        <v>349</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" t="s">
+        <v>27</v>
+      </c>
+      <c r="J86" t="s">
+        <v>27</v>
+      </c>
+      <c r="K86" t="s">
+        <v>27</v>
+      </c>
+      <c r="L86" t="s">
+        <v>27</v>
+      </c>
+      <c r="M86" t="s">
+        <v>349</v>
+      </c>
+      <c r="N86" t="s">
+        <v>27</v>
+      </c>
+      <c r="O86" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87">
+        <v>77</v>
+      </c>
+      <c r="B87" t="s">
+        <v>351</v>
+      </c>
+      <c r="C87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" t="s">
+        <v>352</v>
+      </c>
+      <c r="F87" t="s">
+        <v>353</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" t="s">
+        <v>27</v>
+      </c>
+      <c r="J87" t="s">
+        <v>27</v>
+      </c>
+      <c r="K87" t="s">
+        <v>27</v>
+      </c>
+      <c r="L87" t="s">
+        <v>27</v>
+      </c>
+      <c r="M87" t="s">
+        <v>353</v>
+      </c>
+      <c r="N87" t="s">
+        <v>27</v>
+      </c>
+      <c r="O87" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88">
+        <v>78</v>
+      </c>
+      <c r="B88" t="s">
+        <v>355</v>
+      </c>
+      <c r="C88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" t="s">
+        <v>356</v>
+      </c>
+      <c r="F88" t="s">
+        <v>357</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" t="s">
+        <v>27</v>
+      </c>
+      <c r="J88" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" t="s">
+        <v>27</v>
+      </c>
+      <c r="L88" t="s">
+        <v>27</v>
+      </c>
+      <c r="M88" t="s">
+        <v>357</v>
+      </c>
+      <c r="N88" t="s">
+        <v>27</v>
+      </c>
+      <c r="O88" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89">
+        <v>79</v>
+      </c>
+      <c r="B89" t="s">
+        <v>359</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" t="s">
+        <v>360</v>
+      </c>
+      <c r="F89" t="s">
+        <v>361</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" t="s">
+        <v>27</v>
+      </c>
+      <c r="J89" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" t="s">
+        <v>27</v>
+      </c>
+      <c r="L89" t="s">
+        <v>27</v>
+      </c>
+      <c r="M89" t="s">
+        <v>361</v>
+      </c>
+      <c r="N89" t="s">
+        <v>27</v>
+      </c>
+      <c r="O89" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90">
+        <v>80</v>
+      </c>
+      <c r="B90" t="s">
+        <v>363</v>
+      </c>
+      <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" t="s">
+        <v>364</v>
+      </c>
+      <c r="F90" t="s">
+        <v>365</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" t="s">
+        <v>27</v>
+      </c>
+      <c r="J90" t="s">
+        <v>27</v>
+      </c>
+      <c r="K90" t="s">
+        <v>27</v>
+      </c>
+      <c r="L90" t="s">
+        <v>27</v>
+      </c>
+      <c r="M90" t="s">
+        <v>365</v>
+      </c>
+      <c r="N90" t="s">
+        <v>27</v>
+      </c>
+      <c r="O90" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91">
+        <v>81</v>
+      </c>
+      <c r="B91" t="s">
+        <v>367</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" t="s">
+        <v>368</v>
+      </c>
+      <c r="F91" t="s">
+        <v>369</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" t="s">
+        <v>27</v>
+      </c>
+      <c r="J91" t="s">
+        <v>27</v>
+      </c>
+      <c r="K91" t="s">
+        <v>27</v>
+      </c>
+      <c r="L91" t="s">
+        <v>27</v>
+      </c>
+      <c r="M91" t="s">
+        <v>369</v>
+      </c>
+      <c r="N91" t="s">
+        <v>27</v>
+      </c>
+      <c r="O91" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92">
+        <v>82</v>
+      </c>
+      <c r="B92" t="s">
+        <v>371</v>
+      </c>
+      <c r="C92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" t="s">
+        <v>372</v>
+      </c>
+      <c r="F92" t="s">
+        <v>373</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" t="s">
+        <v>27</v>
+      </c>
+      <c r="J92" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92" t="s">
+        <v>27</v>
+      </c>
+      <c r="L92" t="s">
+        <v>27</v>
+      </c>
+      <c r="M92" t="s">
+        <v>373</v>
+      </c>
+      <c r="N92" t="s">
+        <v>27</v>
+      </c>
+      <c r="O92" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93">
+        <v>83</v>
+      </c>
+      <c r="B93" t="s">
+        <v>375</v>
+      </c>
+      <c r="C93" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" t="s">
+        <v>376</v>
+      </c>
+      <c r="F93" t="s">
+        <v>377</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" t="s">
+        <v>27</v>
+      </c>
+      <c r="J93" t="s">
+        <v>27</v>
+      </c>
+      <c r="K93" t="s">
+        <v>27</v>
+      </c>
+      <c r="L93" t="s">
+        <v>27</v>
+      </c>
+      <c r="M93" t="s">
+        <v>377</v>
+      </c>
+      <c r="N93" t="s">
+        <v>27</v>
+      </c>
+      <c r="O93" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94">
+        <v>84</v>
+      </c>
+      <c r="B94" t="s">
+        <v>379</v>
+      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" t="s">
+        <v>380</v>
+      </c>
+      <c r="F94" t="s">
+        <v>381</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" t="s">
+        <v>27</v>
+      </c>
+      <c r="K94" t="s">
+        <v>27</v>
+      </c>
+      <c r="L94" t="s">
+        <v>27</v>
+      </c>
+      <c r="M94" t="s">
+        <v>381</v>
+      </c>
+      <c r="N94" t="s">
+        <v>27</v>
+      </c>
+      <c r="O94" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95">
+        <v>85</v>
+      </c>
+      <c r="B95" t="s">
+        <v>383</v>
+      </c>
+      <c r="C95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" t="s">
+        <v>384</v>
+      </c>
+      <c r="F95" t="s">
+        <v>385</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95" t="s">
+        <v>27</v>
+      </c>
+      <c r="J95" t="s">
+        <v>27</v>
+      </c>
+      <c r="K95" t="s">
+        <v>27</v>
+      </c>
+      <c r="L95" t="s">
+        <v>27</v>
+      </c>
+      <c r="M95" t="s">
+        <v>385</v>
+      </c>
+      <c r="N95" t="s">
+        <v>27</v>
+      </c>
+      <c r="O95" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96">
+        <v>86</v>
+      </c>
+      <c r="B96" t="s">
+        <v>387</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" t="s">
+        <v>388</v>
+      </c>
+      <c r="F96" t="s">
+        <v>389</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" t="s">
+        <v>27</v>
+      </c>
+      <c r="J96" t="s">
+        <v>27</v>
+      </c>
+      <c r="K96" t="s">
+        <v>27</v>
+      </c>
+      <c r="L96" t="s">
+        <v>27</v>
+      </c>
+      <c r="M96" t="s">
+        <v>389</v>
+      </c>
+      <c r="N96" t="s">
+        <v>27</v>
+      </c>
+      <c r="O96" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
+        <v>391</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" t="s">
+        <v>392</v>
+      </c>
+      <c r="F97" t="s">
+        <v>393</v>
+      </c>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" t="s">
+        <v>27</v>
+      </c>
+      <c r="J97" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97" t="s">
+        <v>27</v>
+      </c>
+      <c r="L97" t="s">
+        <v>27</v>
+      </c>
+      <c r="M97" t="s">
+        <v>393</v>
+      </c>
+      <c r="N97" t="s">
+        <v>27</v>
+      </c>
+      <c r="O97" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98">
+        <v>88</v>
+      </c>
+      <c r="B98" t="s">
+        <v>395</v>
+      </c>
+      <c r="C98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" t="s">
+        <v>396</v>
+      </c>
+      <c r="F98" t="s">
+        <v>397</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" t="s">
+        <v>27</v>
+      </c>
+      <c r="J98" t="s">
+        <v>27</v>
+      </c>
+      <c r="K98" t="s">
+        <v>27</v>
+      </c>
+      <c r="L98" t="s">
+        <v>27</v>
+      </c>
+      <c r="M98" t="s">
+        <v>397</v>
+      </c>
+      <c r="N98" t="s">
+        <v>27</v>
+      </c>
+      <c r="O98" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99">
+        <v>89</v>
+      </c>
+      <c r="B99" t="s">
+        <v>399</v>
+      </c>
+      <c r="C99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" t="s">
+        <v>400</v>
+      </c>
+      <c r="F99" t="s">
+        <v>401</v>
+      </c>
+      <c r="G99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" t="s">
+        <v>27</v>
+      </c>
+      <c r="J99" t="s">
+        <v>27</v>
+      </c>
+      <c r="K99" t="s">
+        <v>27</v>
+      </c>
+      <c r="L99" t="s">
+        <v>27</v>
+      </c>
+      <c r="M99" t="s">
+        <v>401</v>
+      </c>
+      <c r="N99" t="s">
+        <v>27</v>
+      </c>
+      <c r="O99" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100">
+        <v>90</v>
+      </c>
+      <c r="B100" t="s">
+        <v>403</v>
+      </c>
+      <c r="C100" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" t="s">
+        <v>404</v>
+      </c>
+      <c r="F100" t="s">
+        <v>405</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" t="s">
+        <v>27</v>
+      </c>
+      <c r="J100" t="s">
+        <v>27</v>
+      </c>
+      <c r="K100" t="s">
+        <v>27</v>
+      </c>
+      <c r="L100" t="s">
+        <v>27</v>
+      </c>
+      <c r="M100" t="s">
+        <v>405</v>
+      </c>
+      <c r="N100" t="s">
+        <v>27</v>
+      </c>
+      <c r="O100" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101">
+        <v>91</v>
+      </c>
+      <c r="B101" t="s">
+        <v>407</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" t="s">
+        <v>408</v>
+      </c>
+      <c r="F101" t="s">
+        <v>409</v>
+      </c>
+      <c r="G101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" t="s">
+        <v>27</v>
+      </c>
+      <c r="I101" t="s">
+        <v>27</v>
+      </c>
+      <c r="J101" t="s">
+        <v>27</v>
+      </c>
+      <c r="K101" t="s">
+        <v>27</v>
+      </c>
+      <c r="L101" t="s">
+        <v>27</v>
+      </c>
+      <c r="M101" t="s">
+        <v>409</v>
+      </c>
+      <c r="N101" t="s">
+        <v>27</v>
+      </c>
+      <c r="O101" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102">
+        <v>92</v>
+      </c>
+      <c r="B102" t="s">
+        <v>411</v>
+      </c>
+      <c r="C102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" t="s">
+        <v>412</v>
+      </c>
+      <c r="F102" t="s">
+        <v>413</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" t="s">
+        <v>27</v>
+      </c>
+      <c r="J102" t="s">
+        <v>27</v>
+      </c>
+      <c r="K102" t="s">
+        <v>27</v>
+      </c>
+      <c r="L102" t="s">
+        <v>27</v>
+      </c>
+      <c r="M102" t="s">
+        <v>413</v>
+      </c>
+      <c r="N102" t="s">
+        <v>27</v>
+      </c>
+      <c r="O102" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103">
+        <v>93</v>
+      </c>
+      <c r="B103" t="s">
+        <v>415</v>
+      </c>
+      <c r="C103" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" t="s">
+        <v>416</v>
+      </c>
+      <c r="F103" t="s">
+        <v>417</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" t="s">
+        <v>27</v>
+      </c>
+      <c r="J103" t="s">
+        <v>27</v>
+      </c>
+      <c r="K103" t="s">
+        <v>27</v>
+      </c>
+      <c r="L103" t="s">
+        <v>27</v>
+      </c>
+      <c r="M103" t="s">
+        <v>417</v>
+      </c>
+      <c r="N103" t="s">
+        <v>27</v>
+      </c>
+      <c r="O103" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104">
+        <v>94</v>
+      </c>
+      <c r="B104" t="s">
+        <v>419</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" t="s">
+        <v>420</v>
+      </c>
+      <c r="F104" t="s">
+        <v>421</v>
+      </c>
+      <c r="G104" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104" t="s">
+        <v>27</v>
+      </c>
+      <c r="J104" t="s">
+        <v>27</v>
+      </c>
+      <c r="K104" t="s">
+        <v>27</v>
+      </c>
+      <c r="L104" t="s">
+        <v>27</v>
+      </c>
+      <c r="M104" t="s">
+        <v>421</v>
+      </c>
+      <c r="N104" t="s">
+        <v>27</v>
+      </c>
+      <c r="O104" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105">
+        <v>95</v>
+      </c>
+      <c r="B105" t="s">
+        <v>423</v>
+      </c>
+      <c r="C105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" t="s">
+        <v>424</v>
+      </c>
+      <c r="F105" t="s">
+        <v>425</v>
+      </c>
+      <c r="G105" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" t="s">
+        <v>27</v>
+      </c>
+      <c r="J105" t="s">
+        <v>27</v>
+      </c>
+      <c r="K105" t="s">
+        <v>27</v>
+      </c>
+      <c r="L105" t="s">
+        <v>27</v>
+      </c>
+      <c r="M105" t="s">
+        <v>425</v>
+      </c>
+      <c r="N105" t="s">
+        <v>27</v>
+      </c>
+      <c r="O105" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106">
+        <v>96</v>
+      </c>
+      <c r="B106" t="s">
+        <v>427</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" t="s">
+        <v>428</v>
+      </c>
+      <c r="F106" t="s">
+        <v>429</v>
+      </c>
+      <c r="G106" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" t="s">
+        <v>27</v>
+      </c>
+      <c r="J106" t="s">
+        <v>27</v>
+      </c>
+      <c r="K106" t="s">
+        <v>27</v>
+      </c>
+      <c r="L106" t="s">
+        <v>27</v>
+      </c>
+      <c r="M106" t="s">
+        <v>429</v>
+      </c>
+      <c r="N106" t="s">
+        <v>27</v>
+      </c>
+      <c r="O106" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107">
+        <v>97</v>
+      </c>
+      <c r="B107" t="s">
+        <v>431</v>
+      </c>
+      <c r="C107" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" t="s">
+        <v>432</v>
+      </c>
+      <c r="F107" t="s">
+        <v>433</v>
+      </c>
+      <c r="G107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" t="s">
+        <v>27</v>
+      </c>
+      <c r="J107" t="s">
+        <v>27</v>
+      </c>
+      <c r="K107" t="s">
+        <v>27</v>
+      </c>
+      <c r="L107" t="s">
+        <v>27</v>
+      </c>
+      <c r="M107" t="s">
+        <v>433</v>
+      </c>
+      <c r="N107" t="s">
+        <v>27</v>
+      </c>
+      <c r="O107" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108">
+        <v>98</v>
+      </c>
+      <c r="B108" t="s">
+        <v>435</v>
+      </c>
+      <c r="C108" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" t="s">
+        <v>436</v>
+      </c>
+      <c r="F108" t="s">
+        <v>437</v>
+      </c>
+      <c r="G108" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" t="s">
+        <v>27</v>
+      </c>
+      <c r="J108" t="s">
+        <v>27</v>
+      </c>
+      <c r="K108" t="s">
+        <v>27</v>
+      </c>
+      <c r="L108" t="s">
+        <v>27</v>
+      </c>
+      <c r="M108" t="s">
+        <v>437</v>
+      </c>
+      <c r="N108" t="s">
+        <v>27</v>
+      </c>
+      <c r="O108" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109">
+        <v>99</v>
+      </c>
+      <c r="B109" t="s">
+        <v>439</v>
+      </c>
+      <c r="C109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" t="s">
+        <v>440</v>
+      </c>
+      <c r="F109" t="s">
+        <v>441</v>
+      </c>
+      <c r="G109" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" t="s">
+        <v>27</v>
+      </c>
+      <c r="J109" t="s">
+        <v>27</v>
+      </c>
+      <c r="K109" t="s">
+        <v>27</v>
+      </c>
+      <c r="L109" t="s">
+        <v>27</v>
+      </c>
+      <c r="M109" t="s">
+        <v>441</v>
+      </c>
+      <c r="N109" t="s">
+        <v>27</v>
+      </c>
+      <c r="O109" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110">
+        <v>100</v>
+      </c>
+      <c r="B110" t="s">
+        <v>443</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" t="s">
+        <v>444</v>
+      </c>
+      <c r="F110" t="s">
+        <v>445</v>
+      </c>
+      <c r="G110" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" t="s">
+        <v>27</v>
+      </c>
+      <c r="I110" t="s">
+        <v>27</v>
+      </c>
+      <c r="J110" t="s">
+        <v>27</v>
+      </c>
+      <c r="K110" t="s">
+        <v>27</v>
+      </c>
+      <c r="L110" t="s">
+        <v>27</v>
+      </c>
+      <c r="M110" t="s">
+        <v>445</v>
+      </c>
+      <c r="N110" t="s">
+        <v>27</v>
+      </c>
+      <c r="O110" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111">
+        <v>101</v>
+      </c>
+      <c r="B111" t="s">
+        <v>447</v>
+      </c>
+      <c r="C111" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" t="s">
+        <v>448</v>
+      </c>
+      <c r="F111" t="s">
+        <v>449</v>
+      </c>
+      <c r="G111" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" t="s">
+        <v>27</v>
+      </c>
+      <c r="I111" t="s">
+        <v>27</v>
+      </c>
+      <c r="J111" t="s">
+        <v>27</v>
+      </c>
+      <c r="K111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L111" t="s">
+        <v>27</v>
+      </c>
+      <c r="M111" t="s">
+        <v>449</v>
+      </c>
+      <c r="N111" t="s">
+        <v>27</v>
+      </c>
+      <c r="O111" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112">
+        <v>102</v>
+      </c>
+      <c r="B112" t="s">
+        <v>451</v>
+      </c>
+      <c r="C112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" t="s">
+        <v>452</v>
+      </c>
+      <c r="F112" t="s">
+        <v>453</v>
+      </c>
+      <c r="G112" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" t="s">
+        <v>27</v>
+      </c>
+      <c r="J112" t="s">
+        <v>27</v>
+      </c>
+      <c r="K112" t="s">
+        <v>27</v>
+      </c>
+      <c r="L112" t="s">
+        <v>27</v>
+      </c>
+      <c r="M112" t="s">
+        <v>453</v>
+      </c>
+      <c r="N112" t="s">
+        <v>27</v>
+      </c>
+      <c r="O112" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113">
+        <v>103</v>
+      </c>
+      <c r="B113" t="s">
+        <v>455</v>
+      </c>
+      <c r="C113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" t="s">
+        <v>456</v>
+      </c>
+      <c r="F113" t="s">
+        <v>457</v>
+      </c>
+      <c r="G113" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" t="s">
+        <v>27</v>
+      </c>
+      <c r="J113" t="s">
+        <v>27</v>
+      </c>
+      <c r="K113" t="s">
+        <v>27</v>
+      </c>
+      <c r="L113" t="s">
+        <v>27</v>
+      </c>
+      <c r="M113" t="s">
+        <v>457</v>
+      </c>
+      <c r="N113" t="s">
+        <v>27</v>
+      </c>
+      <c r="O113" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114">
+        <v>104</v>
+      </c>
+      <c r="B114" t="s">
+        <v>459</v>
+      </c>
+      <c r="C114" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" t="s">
+        <v>460</v>
+      </c>
+      <c r="F114" t="s">
+        <v>461</v>
+      </c>
+      <c r="G114" t="s">
+        <v>27</v>
+      </c>
+      <c r="H114" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114" t="s">
+        <v>27</v>
+      </c>
+      <c r="J114" t="s">
+        <v>27</v>
+      </c>
+      <c r="K114" t="s">
+        <v>27</v>
+      </c>
+      <c r="L114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M114" t="s">
+        <v>461</v>
+      </c>
+      <c r="N114" t="s">
+        <v>27</v>
+      </c>
+      <c r="O114" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115">
+        <v>105</v>
+      </c>
+      <c r="B115" t="s">
+        <v>463</v>
+      </c>
+      <c r="C115" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" t="s">
+        <v>464</v>
+      </c>
+      <c r="F115" t="s">
+        <v>465</v>
+      </c>
+      <c r="G115" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" t="s">
+        <v>27</v>
+      </c>
+      <c r="J115" t="s">
+        <v>27</v>
+      </c>
+      <c r="K115" t="s">
+        <v>27</v>
+      </c>
+      <c r="L115" t="s">
+        <v>27</v>
+      </c>
+      <c r="M115" t="s">
+        <v>465</v>
+      </c>
+      <c r="N115" t="s">
+        <v>27</v>
+      </c>
+      <c r="O115" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116">
+        <v>106</v>
+      </c>
+      <c r="B116" t="s">
+        <v>467</v>
+      </c>
+      <c r="C116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" t="s">
+        <v>27</v>
+      </c>
+      <c r="E116" t="s">
+        <v>468</v>
+      </c>
+      <c r="F116" t="s">
+        <v>469</v>
+      </c>
+      <c r="G116" t="s">
+        <v>27</v>
+      </c>
+      <c r="H116" t="s">
+        <v>27</v>
+      </c>
+      <c r="I116" t="s">
+        <v>27</v>
+      </c>
+      <c r="J116" t="s">
+        <v>27</v>
+      </c>
+      <c r="K116" t="s">
+        <v>27</v>
+      </c>
+      <c r="L116" t="s">
+        <v>27</v>
+      </c>
+      <c r="M116" t="s">
+        <v>469</v>
+      </c>
+      <c r="N116" t="s">
+        <v>27</v>
+      </c>
+      <c r="O116" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117">
+        <v>107</v>
+      </c>
+      <c r="B117" t="s">
+        <v>471</v>
+      </c>
+      <c r="C117" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" t="s">
+        <v>472</v>
+      </c>
+      <c r="F117" t="s">
+        <v>473</v>
+      </c>
+      <c r="G117" t="s">
+        <v>27</v>
+      </c>
+      <c r="H117" t="s">
+        <v>27</v>
+      </c>
+      <c r="I117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J117" t="s">
+        <v>27</v>
+      </c>
+      <c r="K117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L117" t="s">
+        <v>27</v>
+      </c>
+      <c r="M117" t="s">
+        <v>473</v>
+      </c>
+      <c r="N117" t="s">
+        <v>27</v>
+      </c>
+      <c r="O117" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118">
+        <v>108</v>
+      </c>
+      <c r="B118" t="s">
+        <v>475</v>
+      </c>
+      <c r="C118" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" t="s">
+        <v>27</v>
+      </c>
+      <c r="E118" t="s">
+        <v>476</v>
+      </c>
+      <c r="F118" t="s">
+        <v>477</v>
+      </c>
+      <c r="G118" t="s">
+        <v>27</v>
+      </c>
+      <c r="H118" t="s">
+        <v>27</v>
+      </c>
+      <c r="I118" t="s">
+        <v>27</v>
+      </c>
+      <c r="J118" t="s">
+        <v>27</v>
+      </c>
+      <c r="K118" t="s">
+        <v>27</v>
+      </c>
+      <c r="L118" t="s">
+        <v>27</v>
+      </c>
+      <c r="M118" t="s">
+        <v>477</v>
+      </c>
+      <c r="N118" t="s">
+        <v>27</v>
+      </c>
+      <c r="O118" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119">
+        <v>109</v>
+      </c>
+      <c r="B119" t="s">
+        <v>479</v>
+      </c>
+      <c r="C119" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" t="s">
+        <v>480</v>
+      </c>
+      <c r="F119" t="s">
+        <v>481</v>
+      </c>
+      <c r="G119" t="s">
+        <v>27</v>
+      </c>
+      <c r="H119" t="s">
+        <v>27</v>
+      </c>
+      <c r="I119" t="s">
+        <v>27</v>
+      </c>
+      <c r="J119" t="s">
+        <v>27</v>
+      </c>
+      <c r="K119" t="s">
+        <v>27</v>
+      </c>
+      <c r="L119" t="s">
+        <v>27</v>
+      </c>
+      <c r="M119" t="s">
+        <v>481</v>
+      </c>
+      <c r="N119" t="s">
+        <v>27</v>
+      </c>
+      <c r="O119" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120">
+        <v>110</v>
+      </c>
+      <c r="B120" t="s">
+        <v>483</v>
+      </c>
+      <c r="C120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" t="s">
+        <v>484</v>
+      </c>
+      <c r="F120" t="s">
+        <v>485</v>
+      </c>
+      <c r="G120" t="s">
+        <v>27</v>
+      </c>
+      <c r="H120" t="s">
+        <v>27</v>
+      </c>
+      <c r="I120" t="s">
+        <v>27</v>
+      </c>
+      <c r="J120" t="s">
+        <v>27</v>
+      </c>
+      <c r="K120" t="s">
+        <v>27</v>
+      </c>
+      <c r="L120" t="s">
+        <v>27</v>
+      </c>
+      <c r="M120" t="s">
+        <v>485</v>
+      </c>
+      <c r="N120" t="s">
+        <v>27</v>
+      </c>
+      <c r="O120" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121">
+        <v>111</v>
+      </c>
+      <c r="B121" t="s">
+        <v>487</v>
+      </c>
+      <c r="C121" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" t="s">
+        <v>488</v>
+      </c>
+      <c r="F121" t="s">
+        <v>489</v>
+      </c>
+      <c r="G121" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" t="s">
+        <v>27</v>
+      </c>
+      <c r="I121" t="s">
+        <v>27</v>
+      </c>
+      <c r="J121" t="s">
+        <v>27</v>
+      </c>
+      <c r="K121" t="s">
+        <v>27</v>
+      </c>
+      <c r="L121" t="s">
+        <v>27</v>
+      </c>
+      <c r="M121" t="s">
+        <v>489</v>
+      </c>
+      <c r="N121" t="s">
+        <v>27</v>
+      </c>
+      <c r="O121" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122">
+        <v>112</v>
+      </c>
+      <c r="B122" t="s">
+        <v>491</v>
+      </c>
+      <c r="C122" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122" t="s">
+        <v>492</v>
+      </c>
+      <c r="F122" t="s">
+        <v>493</v>
+      </c>
+      <c r="G122" t="s">
+        <v>27</v>
+      </c>
+      <c r="H122" t="s">
+        <v>27</v>
+      </c>
+      <c r="I122" t="s">
+        <v>27</v>
+      </c>
+      <c r="J122" t="s">
+        <v>27</v>
+      </c>
+      <c r="K122" t="s">
+        <v>27</v>
+      </c>
+      <c r="L122" t="s">
+        <v>27</v>
+      </c>
+      <c r="M122" t="s">
+        <v>493</v>
+      </c>
+      <c r="N122" t="s">
+        <v>27</v>
+      </c>
+      <c r="O122" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123">
+        <v>113</v>
+      </c>
+      <c r="B123" t="s">
+        <v>495</v>
+      </c>
+      <c r="C123" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" t="s">
+        <v>496</v>
+      </c>
+      <c r="F123" t="s">
+        <v>497</v>
+      </c>
+      <c r="G123" t="s">
+        <v>27</v>
+      </c>
+      <c r="H123" t="s">
+        <v>27</v>
+      </c>
+      <c r="I123" t="s">
+        <v>27</v>
+      </c>
+      <c r="J123" t="s">
+        <v>27</v>
+      </c>
+      <c r="K123" t="s">
+        <v>27</v>
+      </c>
+      <c r="L123" t="s">
+        <v>27</v>
+      </c>
+      <c r="M123" t="s">
+        <v>497</v>
+      </c>
+      <c r="N123" t="s">
+        <v>27</v>
+      </c>
+      <c r="O123" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124">
+        <v>114</v>
+      </c>
+      <c r="B124" t="s">
+        <v>499</v>
+      </c>
+      <c r="C124" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124" t="s">
+        <v>500</v>
+      </c>
+      <c r="F124" t="s">
+        <v>501</v>
+      </c>
+      <c r="G124" t="s">
+        <v>27</v>
+      </c>
+      <c r="H124" t="s">
+        <v>27</v>
+      </c>
+      <c r="I124" t="s">
+        <v>27</v>
+      </c>
+      <c r="J124" t="s">
+        <v>27</v>
+      </c>
+      <c r="K124" t="s">
+        <v>27</v>
+      </c>
+      <c r="L124" t="s">
+        <v>27</v>
+      </c>
+      <c r="M124" t="s">
+        <v>501</v>
+      </c>
+      <c r="N124" t="s">
+        <v>27</v>
+      </c>
+      <c r="O124" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125">
+        <v>115</v>
+      </c>
+      <c r="B125" t="s">
+        <v>503</v>
+      </c>
+      <c r="C125" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" t="s">
+        <v>504</v>
+      </c>
+      <c r="F125" t="s">
+        <v>505</v>
+      </c>
+      <c r="G125" t="s">
+        <v>27</v>
+      </c>
+      <c r="H125" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125" t="s">
+        <v>27</v>
+      </c>
+      <c r="J125" t="s">
+        <v>27</v>
+      </c>
+      <c r="K125" t="s">
+        <v>27</v>
+      </c>
+      <c r="L125" t="s">
+        <v>27</v>
+      </c>
+      <c r="M125" t="s">
+        <v>505</v>
+      </c>
+      <c r="N125" t="s">
+        <v>27</v>
+      </c>
+      <c r="O125" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126">
+        <v>116</v>
+      </c>
+      <c r="B126" t="s">
         <v>8</v>
       </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s">
-        <v>182</v>
-      </c>
-      <c r="F50" t="s">
-        <v>183</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" t="s">
-        <v>26</v>
-      </c>
-      <c r="K50" t="s">
-        <v>26</v>
-      </c>
-      <c r="L50" t="s">
-        <v>26</v>
-      </c>
-      <c r="M50" t="s">
-        <v>183</v>
-      </c>
-      <c r="N50" t="s">
-        <v>26</v>
-      </c>
-      <c r="O50" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="N51" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="N52" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="N53" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>189</v>
+      <c r="C126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" t="s">
+        <v>507</v>
+      </c>
+      <c r="F126" t="s">
+        <v>508</v>
+      </c>
+      <c r="G126" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" t="s">
+        <v>27</v>
+      </c>
+      <c r="J126" t="s">
+        <v>27</v>
+      </c>
+      <c r="K126" t="s">
+        <v>27</v>
+      </c>
+      <c r="L126" t="s">
+        <v>27</v>
+      </c>
+      <c r="M126" t="s">
+        <v>508</v>
+      </c>
+      <c r="N126" t="s">
+        <v>27</v>
+      </c>
+      <c r="O126" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="N127" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="O127" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="N128" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="O128" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="N129" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="O129" s="4" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/dfpyme/Reporte impuestos .xlsx
+++ b/dfpyme/Reporte impuestos .xlsx
@@ -20,22 +20,22 @@
     <t xml:space="preserve">REPORTE DE IMPUESTOS  </t>
   </si>
   <si>
-    <t>ALIMENTOS Y BEBIDAS ALYCA S.A.S</t>
-  </si>
-  <si>
-    <t>CARRATAPLAN TABLAZO</t>
-  </si>
-  <si>
-    <t>NIT: 900631190</t>
-  </si>
-  <si>
-    <t>Dirección: VDA BAJO TABLAZO ANTIGUA VIA CHINCHINA MANIZALES Caldas</t>
+    <t xml:space="preserve">Federación Nacional de Cafeteros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEDERACIÓN NACIONAL DE CAFETEROS </t>
+  </si>
+  <si>
+    <t>NIT: 860007538-2</t>
+  </si>
+  <si>
+    <t>Dirección: Car 9 No 36-43 PV UKUMARI PEREIRA Risaralda</t>
   </si>
   <si>
     <t>Fecha inicial</t>
   </si>
   <si>
-    <t>2025-01-20</t>
+    <t>2025-02-09</t>
   </si>
   <si>
     <t>Fecha final</t>
@@ -44,12 +44,15 @@
     <t>Factura inicial</t>
   </si>
   <si>
-    <t>FETB4619</t>
+    <t>70BC14350</t>
   </si>
   <si>
     <t>Factura final</t>
   </si>
   <si>
+    <t>70BC14398</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dia proceso </t>
   </si>
   <si>
@@ -98,13 +101,13 @@
     <t>0</t>
   </si>
   <si>
-    <t>681.481</t>
-  </si>
-  <si>
-    <t>54.519</t>
-  </si>
-  <si>
-    <t>736.000</t>
+    <t>465.833</t>
+  </si>
+  <si>
+    <t>37.267</t>
+  </si>
+  <si>
+    <t>503.100</t>
   </si>
   <si>
     <t>Total Ventas</t>
@@ -114,9 +117,6 @@
   </si>
   <si>
     <t>Total INC</t>
-  </si>
-  <si>
-    <t>796.000</t>
   </si>
 </sst>
 </file>
@@ -629,55 +629,55 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7">
-        <v>4847</v>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -688,67 +688,67 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="N12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="N13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="N14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
